--- a/Excel Output/Section_5.xlsx
+++ b/Excel Output/Section_5.xlsx
@@ -508,13 +508,13 @@
         <v>5.367585574295084e-08</v>
       </c>
       <c r="F2">
-        <v>0.00118029433691135</v>
+        <v>5.639184054132007e-05</v>
       </c>
       <c r="G2">
         <v>288.8380151009035</v>
       </c>
       <c r="H2">
-        <v>0.9695002640003588</v>
+        <v>0.9904419145647997</v>
       </c>
       <c r="I2">
         <v>2243.90404453724</v>
@@ -523,22 +523,22 @@
         <v>1.503719234532486e-07</v>
       </c>
       <c r="K2">
-        <v>5.249184469829555e-06</v>
+        <v>7.523831073422361e-07</v>
       </c>
       <c r="L2">
-        <v>0.9999933170306878</v>
+        <v>0.9999990420365338</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>5.532086077449236e-06</v>
+        <v>4.288438819728092e-06</v>
       </c>
       <c r="O2">
-        <v>3.635541249265561e-06</v>
+        <v>4.626971574241439e-05</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9990743900111875</v>
       </c>
       <c r="Q2">
         <v>0.559596290710022</v>
@@ -559,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>0.9694937848598464</v>
+        <v>0.9895242037063958</v>
       </c>
       <c r="X2">
-        <v>-5.604885946529695e-06</v>
+        <v>-1.708129664885859e-06</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -582,13 +582,13 @@
         <v>3.785790525616838e-08</v>
       </c>
       <c r="F3">
-        <v>0.0008324687247683087</v>
+        <v>3.97735057389303e-05</v>
       </c>
       <c r="G3">
         <v>409.5215392064057</v>
       </c>
       <c r="H3">
-        <v>0.9756869942903044</v>
+        <v>0.9924190830870833</v>
       </c>
       <c r="I3">
         <v>2039.228160405775</v>
@@ -597,22 +597,22 @@
         <v>1.63974051406698e-07</v>
       </c>
       <c r="K3">
-        <v>5.72400767598532e-06</v>
+        <v>8.204411002245622e-07</v>
       </c>
       <c r="L3">
-        <v>0.9999927125446272</v>
+        <v>0.9999989553824927</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>6.03249959180024e-06</v>
+        <v>4.676356272713366e-06</v>
       </c>
       <c r="O3">
-        <v>3.635541279437017e-06</v>
+        <v>4.626971635191057e-05</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9990743899990004</v>
       </c>
       <c r="Q3">
         <v>0.558311400768743</v>
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>0.9756798840148756</v>
+        <v>0.9914994543198247</v>
       </c>
       <c r="X3">
-        <v>-0.0004871156843264902</v>
+        <v>-0.0001471456707994833</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -656,13 +656,13 @@
         <v>2.67289016617397e-08</v>
       </c>
       <c r="F4">
-        <v>0.00058774975874241</v>
+        <v>2.808137736213737e-05</v>
       </c>
       <c r="G4">
         <v>580.0323495457563</v>
       </c>
       <c r="H4">
-        <v>0.9806477522527257</v>
+        <v>0.9939843864201315</v>
       </c>
       <c r="I4">
         <v>1853.221620735355</v>
@@ -671,22 +671,22 @@
         <v>1.789906847856156e-07</v>
       </c>
       <c r="K4">
-        <v>6.248208450382182e-06</v>
+        <v>8.955765445547791e-07</v>
       </c>
       <c r="L4">
-        <v>0.9999920452022916</v>
+        <v>0.9999988597171783</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>6.584951848431098e-06</v>
+        <v>5.104613835993101e-06</v>
       </c>
       <c r="O4">
-        <v>3.635541315778576e-06</v>
+        <v>4.626971708604953e-05</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.999074389984321</v>
       </c>
       <c r="Q4">
         <v>0.5568262969557191</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>0.9806399513982333</v>
+        <v>0.9930632121424195</v>
       </c>
       <c r="X4">
-        <v>-0.01765150761668301</v>
+        <v>-0.005278944204707212</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -730,13 +730,13 @@
         <v>1.889490010158615e-08</v>
       </c>
       <c r="F5">
-        <v>0.0004154855712633264</v>
+        <v>1.985097729369226e-05</v>
       </c>
       <c r="G5">
         <v>820.5191638104975</v>
       </c>
       <c r="H5">
-        <v>0.9846105068800937</v>
+        <v>0.9952233234257871</v>
       </c>
       <c r="I5">
         <v>1684.181516440797</v>
@@ -745,22 +745,22 @@
         <v>1.956251490276788e-07</v>
       </c>
       <c r="K5">
-        <v>6.828884479245513e-06</v>
+        <v>9.788067753585234e-07</v>
       </c>
       <c r="L5">
-        <v>0.9999913059693116</v>
+        <v>0.9999987537452836</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>7.196923059053775e-06</v>
+        <v>5.579010123297503e-06</v>
       </c>
       <c r="O5">
-        <v>3.635541359750599e-06</v>
+        <v>4.626971797433217e-05</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9990743899665594</v>
       </c>
       <c r="Q5">
         <v>0.555120258358371</v>
@@ -781,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>0.9846019466461308</v>
+        <v>0.9943008955783851</v>
       </c>
       <c r="X5">
-        <v>-0.3413545217924359</v>
+        <v>-0.1009432519362637</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -804,13 +804,13 @@
         <v>1.337698695977072e-08</v>
       </c>
       <c r="F6">
-        <v>0.0002941505400335956</v>
+        <v>1.405385913493846e-05</v>
       </c>
       <c r="G6">
         <v>1158.977554382103</v>
       </c>
       <c r="H6">
-        <v>0.9877662567813899</v>
+        <v>0.9962038038508999</v>
       </c>
       <c r="I6">
         <v>1530.560267905421</v>
@@ -819,22 +819,22 @@
         <v>2.141258788883885e-07</v>
       </c>
       <c r="K6">
-        <v>7.474708125277029e-06</v>
+        <v>1.071374831289707e-06</v>
       </c>
       <c r="L6">
-        <v>0.9999904838070897</v>
+        <v>0.999998635884128</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6">
-        <v>7.877552978088505e-06</v>
+        <v>6.106630215572487e-06</v>
       </c>
       <c r="O6">
-        <v>3.635541413242794e-06</v>
+        <v>4.626971905493261e-05</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9990743899449523</v>
       </c>
       <c r="Q6">
         <v>0.5531745574539834</v>
@@ -855,10 +855,10 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>0.98775685700714</v>
+        <v>0.9952803499136043</v>
       </c>
       <c r="X6">
-        <v>-3.715725544482216</v>
+        <v>-1.085035837637032</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -878,13 +878,13 @@
         <v>9.487602955131187e-09</v>
       </c>
       <c r="F7">
-        <v>0.0002086257197729981</v>
+        <v>9.967673278043243e-06</v>
       </c>
       <c r="G7">
         <v>1634.093216690894</v>
       </c>
       <c r="H7">
-        <v>0.9902731939644674</v>
+        <v>0.9969797023793819</v>
       </c>
       <c r="I7">
         <v>1390.95145672979</v>
@@ -893,22 +893,22 @@
         <v>2.348000179484226e-07</v>
       </c>
       <c r="K7">
-        <v>8.196401159381019e-06</v>
+        <v>1.174817499511279e-06</v>
       </c>
       <c r="L7">
-        <v>0.9999895650685988</v>
+        <v>0.9999985041770205</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7">
-        <v>8.638141219767962e-06</v>
+        <v>6.696233503696097e-06</v>
       </c>
       <c r="O7">
-        <v>3.635541478734091e-06</v>
+        <v>4.626972037792796e-05</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.9990743899184985</v>
       </c>
       <c r="Q7">
         <v>0.5509744003448189</v>
@@ -929,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>0.99026286053162</v>
+        <v>0.9960553979910254</v>
       </c>
       <c r="X7">
-        <v>-21.58845150346759</v>
+        <v>-6.216373229593261</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -952,13 +952,13 @@
         <v>6.743738211120288e-09</v>
       </c>
       <c r="F8">
-        <v>0.0001482900628229533</v>
+        <v>7.084969668207766e-06</v>
       </c>
       <c r="G8">
         <v>2298.966410954563</v>
       </c>
       <c r="H8">
-        <v>0.9922609948680849</v>
+        <v>0.9975937199207626</v>
       </c>
       <c r="I8">
         <v>1264.076949825984</v>
@@ -967,22 +967,22 @@
         <v>2.580317192880479e-07</v>
       </c>
       <c r="K8">
-        <v>9.007373600772935e-06</v>
+        <v>1.291056882777454e-06</v>
       </c>
       <c r="L8">
-        <v>0.9999885326853365</v>
+        <v>0.9999983561766734</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8">
-        <v>9.492820528145347e-06</v>
+        <v>7.358775603213452e-06</v>
       </c>
       <c r="O8">
-        <v>3.635541559524757e-06</v>
+        <v>4.626972200998716e-05</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0.9990743898858648</v>
       </c>
       <c r="Q8">
         <v>0.5485113590834908</v>
@@ -1003,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0.9922496162990285</v>
+        <v>0.9966686987338572</v>
       </c>
       <c r="X8">
-        <v>-51.31335514736806</v>
+        <v>-13.83263445797537</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1026,13 +1026,13 @@
         <v>4.806003878107212e-09</v>
       </c>
       <c r="F9">
-        <v>0.0001056806469498885</v>
+        <v>5.04918646538356e-06</v>
       </c>
       <c r="G9">
         <v>3225.887457615259</v>
       </c>
       <c r="H9">
-        <v>0.9938350278567718</v>
+        <v>0.9980796775166417</v>
       </c>
       <c r="I9">
         <v>1148.775197977145</v>
@@ -1041,22 +1041,22 @@
         <v>2.843068211189093e-07</v>
       </c>
       <c r="K9">
-        <v>9.924585094158062e-06</v>
+        <v>1.422523863495988e-06</v>
       </c>
       <c r="L9">
-        <v>0.9999873650710854</v>
+        <v>0.9999981887880039</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9">
-        <v>1.045946457767273e-05</v>
+        <v>8.108112075715298e-06</v>
       </c>
       <c r="O9">
-        <v>3.635541660078069e-06</v>
+        <v>4.626972404127328e-05</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0.9990743898452485</v>
       </c>
       <c r="Q9">
         <v>0.5457861921137659</v>
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>0.9938224708218421</v>
+        <v>0.9971540387712532</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1097,13 +1097,13 @@
         <v>3.435864251838654e-09</v>
       </c>
       <c r="F10">
-        <v>7.555223969342858e-05</v>
+        <v>3.609718118686032e-06</v>
       </c>
       <c r="G10">
         <v>4512.293413029868</v>
       </c>
       <c r="H10">
-        <v>0.9950802884816032</v>
+        <v>0.9984643494335751</v>
       </c>
       <c r="I10">
         <v>1043.990601734412</v>
@@ -1112,22 +1112,22 @@
         <v>3.142461232563716e-07</v>
       </c>
       <c r="K10">
-        <v>1.096970652513026e-05</v>
+        <v>1.572324601935337e-06</v>
       </c>
       <c r="L10">
-        <v>0.9999860346436259</v>
+        <v>0.9999979980561435</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10">
-        <v>1.156091219315592e-05</v>
+        <v>8.961947436554979e-06</v>
       </c>
       <c r="O10">
-        <v>3.635541786530082e-06</v>
+        <v>4.626972659574131e-05</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0.9990743897941708</v>
       </c>
       <c r="Q10">
         <v>0.5428117725830619</v>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="W10">
-        <v>0.9950663918307537</v>
+        <v>0.9975381636221866</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1168,13 +1168,13 @@
         <v>2.465614566222241e-09</v>
       </c>
       <c r="F11">
-        <v>5.421713113349723e-05</v>
+        <v>2.590374043044868e-06</v>
       </c>
       <c r="G11">
         <v>6287.936421218773</v>
       </c>
       <c r="H11">
-        <v>0.9960649384408903</v>
+        <v>0.9987689243394293</v>
       </c>
       <c r="I11">
         <v>948.7638472949203</v>
@@ -1183,22 +1183,22 @@
         <v>3.486501754466912e-07</v>
       </c>
       <c r="K11">
-        <v>1.217068349150377e-05</v>
+        <v>1.744464633782206e-06</v>
       </c>
       <c r="L11">
-        <v>0.9999845058351233</v>
+        <v>0.9999977788811105</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11">
-        <v>1.282661508342371e-05</v>
+        <v>9.943112467770321e-06</v>
       </c>
       <c r="O11">
-        <v>3.635541947459965e-06</v>
+        <v>4.626972984669975e-05</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0.9990743897291667</v>
       </c>
       <c r="Q11">
         <v>0.5396155854850875</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="W11">
-        <v>0.9960495052465062</v>
+        <v>0.9978422372337071</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1239,13 +1239,13 @@
         <v>1.777304497156777e-09</v>
       </c>
       <c r="F12">
-        <v>3.908167655504425e-05</v>
+        <v>1.867235657629892e-06</v>
       </c>
       <c r="G12">
         <v>8723.112812935602</v>
       </c>
       <c r="H12">
-        <v>0.9968433902121021</v>
+        <v>0.9990101677170815</v>
       </c>
       <c r="I12">
         <v>862.2231238848399</v>
@@ -1254,22 +1254,22 @@
         <v>3.885593017498834e-07</v>
       </c>
       <c r="K12">
-        <v>1.356383163501551e-05</v>
+        <v>1.944149201018889e-06</v>
       </c>
       <c r="L12">
-        <v>0.9999827324258322</v>
+        <v>0.9999975246354201</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12">
-        <v>1.429484609965923e-05</v>
+        <v>1.108127604624747e-05</v>
       </c>
       <c r="O12">
-        <v>3.635542155068227e-06</v>
+        <v>4.626973404061215e-05</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0.9990743896453077</v>
       </c>
       <c r="Q12">
         <v>0.536240921036377</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="W12">
-        <v>0.9968261771449279</v>
+        <v>0.9980830029359707</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1310,13 +1310,13 @@
         <v>1.287940625483673e-09</v>
       </c>
       <c r="F13">
-        <v>2.832090901012007e-05</v>
+        <v>1.353110097150181e-06</v>
       </c>
       <c r="G13">
         <v>12037.53288379588</v>
       </c>
       <c r="H13">
-        <v>0.9974589304944691</v>
+        <v>0.9992013451003865</v>
       </c>
       <c r="I13">
         <v>783.5761422416842</v>
@@ -1325,22 +1325,22 @@
         <v>4.353334933163737e-07</v>
       </c>
       <c r="K13">
-        <v>1.51966255390982e-05</v>
+        <v>2.178182993937408e-06</v>
       </c>
       <c r="L13">
-        <v>0.999980653995481</v>
+        <v>0.9999972266551221</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>1.601563843912394e-05</v>
+        <v>1.241522359622011e-05</v>
       </c>
       <c r="O13">
-        <v>3.635542426999088e-06</v>
+        <v>4.626973953391093e-05</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0.999074389535467</v>
       </c>
       <c r="Q13">
         <v>0.5327455337001347</v>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="W13">
-        <v>0.9974396336494922</v>
+        <v>0.9982737053142406</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1381,13 +1381,13 @@
         <v>9.390963302072559e-10</v>
       </c>
       <c r="F14">
-        <v>2.065006817340628e-05</v>
+        <v>9.866143682849665e-07</v>
       </c>
       <c r="G14">
         <v>16509.09191415405</v>
       </c>
       <c r="H14">
-        <v>0.9979459088682214</v>
+        <v>0.9993529542796592</v>
       </c>
       <c r="I14">
         <v>712.1028811242669</v>
@@ -1396,22 +1396,22 @@
         <v>4.907577335573345e-07</v>
       </c>
       <c r="K14">
-        <v>1.713137542088318e-05</v>
+        <v>2.455497143659922e-06</v>
       </c>
       <c r="L14">
-        <v>0.9999781912454193</v>
+        <v>0.9999968735688221</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
-        <v>1.805466049024207e-05</v>
+        <v>1.399586084514889e-05</v>
       </c>
       <c r="O14">
-        <v>3.635542789187892e-06</v>
+        <v>4.62697468505182e-05</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0.9990743893891685</v>
       </c>
       <c r="Q14">
         <v>0.5291962741291327</v>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="W14">
-        <v>0.9979241449108102</v>
+        <v>0.9984248210649634</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1452,13 +1452,13 @@
         <v>6.896156232966538e-10</v>
       </c>
       <c r="F15">
-        <v>1.516416279827129e-05</v>
+        <v>7.245100003618504e-07</v>
       </c>
       <c r="G15">
         <v>22481.54929774136</v>
       </c>
       <c r="H15">
-        <v>0.9983315361171925</v>
+        <v>0.9994733051384806</v>
       </c>
       <c r="I15">
         <v>647.1489954438608</v>
@@ -1467,22 +1467,22 @@
         <v>5.571791671282506e-07</v>
       </c>
       <c r="K15">
-        <v>1.945001542732473e-05</v>
+        <v>2.787835544583211e-06</v>
       </c>
       <c r="L15">
-        <v>0.9999752399071465</v>
+        <v>0.9999964504238402</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
       <c r="N15">
-        <v>2.049826219103514e-05</v>
+        <v>1.589012572948462e-05</v>
       </c>
       <c r="O15">
-        <v>3.63554328035003e-06</v>
+        <v>4.62697567725269e-05</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0.999074389190774</v>
       </c>
       <c r="Q15">
         <v>0.5256582457685889</v>
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="W15">
-        <v>0.9983068173356597</v>
+        <v>0.9985446374208909</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1523,13 +1523,13 @@
         <v>5.104890294133102e-10</v>
       </c>
       <c r="F16">
-        <v>1.12252949139247e-05</v>
+        <v>5.363196458875134e-07</v>
       </c>
       <c r="G16">
         <v>30370.14850143637</v>
       </c>
       <c r="H16">
-        <v>0.9986373437705446</v>
+        <v>0.9995689780251538</v>
       </c>
       <c r="I16">
         <v>588.1198256673173</v>
@@ -1538,22 +1538,22 @@
         <v>6.376831780500678e-07</v>
       </c>
       <c r="K16">
-        <v>2.226025017185252e-05</v>
+        <v>3.190635857965526e-06</v>
       </c>
       <c r="L16">
-        <v>0.9999716629240634</v>
+        <v>0.9999959375645046</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16">
-        <v>2.345995282963278e-05</v>
+        <v>1.818600994545177e-05</v>
       </c>
       <c r="O16">
-        <v>3.635543959111055e-06</v>
+        <v>4.62697704842369e-05</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0.9990743889166028</v>
       </c>
       <c r="Q16">
         <v>0.5221776776416321</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="W16">
-        <v>0.998609045308301</v>
+        <v>0.9986397089745919</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1594,13 +1594,13 @@
         <v>3.812543930937494e-10</v>
       </c>
       <c r="F17">
-        <v>8.383516105380828e-06</v>
+        <v>4.005457694793062e-07</v>
       </c>
       <c r="G17">
         <v>40664.78422931654</v>
       </c>
       <c r="H17">
-        <v>0.9988803566512285</v>
+        <v>0.9996451853077696</v>
       </c>
       <c r="I17">
         <v>534.4749536476113</v>
@@ -1609,22 +1609,22 @@
         <v>7.363158903387759e-07</v>
       </c>
       <c r="K17">
-        <v>2.570332178837022e-05</v>
+        <v>3.684142789666397e-06</v>
       </c>
       <c r="L17">
-        <v>0.9999672805738135</v>
+        <v>0.9999953092147135</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17">
-        <v>2.708858669892727e-05</v>
+        <v>2.099890441777309e-05</v>
       </c>
       <c r="O17">
-        <v>3.635544915399519e-06</v>
+        <v>4.626978980230265e-05</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0.9990743885303304</v>
       </c>
       <c r="Q17">
         <v>0.518759221893586</v>
@@ -1645,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="W17">
-        <v>0.9988476738591299</v>
+        <v>0.9987152174780258</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1665,13 +1665,13 @@
         <v>2.874682951751665e-10</v>
       </c>
       <c r="F18">
-        <v>6.321225738098621e-06</v>
+        <v>3.020141185980452e-07</v>
       </c>
       <c r="G18">
         <v>53931.60877859362</v>
       </c>
       <c r="H18">
-        <v>0.9990740267428989</v>
+        <v>0.9997060558097786</v>
       </c>
       <c r="I18">
         <v>485.7232550398801</v>
@@ -1680,22 +1680,22 @@
         <v>8.583611224937569e-07</v>
       </c>
       <c r="K18">
-        <v>2.996367786105055e-05</v>
+        <v>4.294793826750577e-06</v>
       </c>
       <c r="L18">
-        <v>0.999961858176194</v>
+        <v>0.9999945317136144</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
       <c r="N18">
-        <v>3.157855207357078e-05</v>
+        <v>2.447949773145023e-05</v>
       </c>
       <c r="O18">
-        <v>3.635546288729986e-06</v>
+        <v>4.626981754506984e-05</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0.9990743879756027</v>
       </c>
       <c r="Q18">
         <v>0.5153408634255596</v>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="W18">
-        <v>0.9990359202374017</v>
+        <v>0.9987752542446675</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1736,13 +1736,13 @@
         <v>2.189290315033527e-10</v>
       </c>
       <c r="F19">
-        <v>4.814095508907265e-06</v>
+        <v>2.300067854255693e-07</v>
       </c>
       <c r="G19">
         <v>70815.768585716</v>
       </c>
       <c r="H19">
-        <v>0.9992289716884615</v>
+        <v>0.999754857986587</v>
       </c>
       <c r="I19">
         <v>441.4184030073134</v>
@@ -1751,22 +1751,22 @@
         <v>1.010681254361173e-06</v>
       </c>
       <c r="K19">
-        <v>3.528087040789866e-05</v>
+        <v>5.056924758465473e-06</v>
       </c>
       <c r="L19">
-        <v>0.9999550909691293</v>
+        <v>0.999993561344151</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
       <c r="N19">
-        <v>3.718231148202808e-05</v>
+        <v>2.882349727289e-05</v>
       </c>
       <c r="O19">
-        <v>3.635548297628319e-06</v>
+        <v>4.626985812699831e-05</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0.9990743871641508</v>
       </c>
       <c r="Q19">
         <v>0.5117726755690645</v>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="W19">
-        <v>0.999184097283725</v>
+        <v>0.9988230409381096</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1807,13 +1807,13 @@
         <v>1.684270257958236e-10</v>
       </c>
       <c r="F20">
-        <v>3.703591903250463e-06</v>
+        <v>1.769493909330776e-07</v>
       </c>
       <c r="G20">
         <v>92049.5244654542</v>
       </c>
       <c r="H20">
-        <v>0.999353556002183</v>
+        <v>0.999794174788469</v>
       </c>
       <c r="I20">
         <v>401.1547820528561</v>
@@ -1822,22 +1822,22 @@
         <v>1.202135448287695e-06</v>
       </c>
       <c r="K20">
-        <v>4.196415514858558e-05</v>
+        <v>6.01486223796393e-06</v>
       </c>
       <c r="L20">
-        <v>0.9999465855595616</v>
+        <v>0.9999923416688676</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
       <c r="N20">
-        <v>4.422578779307941e-05</v>
+        <v>3.428355642874374e-05</v>
       </c>
       <c r="O20">
-        <v>3.635551287081997e-06</v>
+        <v>4.626991851720985e-05</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0.9990743859566243</v>
       </c>
       <c r="Q20">
         <v>0.5078081570284126</v>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="W20">
-        <v>0.999300176091189</v>
+        <v>0.9988611015921447</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1878,13 +1878,13 @@
         <v>1.308651919445982e-10</v>
       </c>
       <c r="F21">
-        <v>2.877633580556581e-06</v>
+        <v>1.374869377377033e-07</v>
       </c>
       <c r="G21">
         <v>118470.2165737075</v>
       </c>
       <c r="H21">
-        <v>0.9994543481467347</v>
+        <v>0.9998260409332671</v>
       </c>
       <c r="I21">
         <v>364.563774567433</v>
@@ -1893,22 +1893,22 @@
         <v>1.444097578693565e-06</v>
       </c>
       <c r="K21">
-        <v>5.041057139468919e-05</v>
+        <v>7.225515233238781e-06</v>
       </c>
       <c r="L21">
-        <v>0.99993583696216</v>
+        <v>0.9999908002305921</v>
       </c>
       <c r="M21">
         <v>1</v>
       </c>
       <c r="N21">
-        <v>5.31274185107608e-05</v>
+        <v>4.118404535717893e-05</v>
       </c>
       <c r="O21">
-        <v>3.635555805193952e-06</v>
+        <v>4.627000978797908e-05</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0.9990743841316289</v>
       </c>
       <c r="Q21">
         <v>0.5031170784148096</v>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="W21">
-        <v>0.9993902201195752</v>
+        <v>0.9988913964291152</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1949,13 +1949,13 @@
         <v>1.026386281087213e-10</v>
       </c>
       <c r="F22">
-        <v>2.256951283370709e-06</v>
+        <v>1.078321168721561e-07</v>
       </c>
       <c r="G22">
         <v>151050.6123992025</v>
       </c>
       <c r="H22">
-        <v>0.9995364819557271</v>
+        <v>0.9998520515182994</v>
       </c>
       <c r="I22">
         <v>331.3103860976593</v>
@@ -1964,22 +1964,22 @@
         <v>1.751112310064584e-06</v>
       </c>
       <c r="K22">
-        <v>6.112784442619824e-05</v>
+        <v>8.76165770108841e-06</v>
       </c>
       <c r="L22">
-        <v>0.9999221995271834</v>
+        <v>0.999988844373162</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22">
-        <v>6.442229246053428e-05</v>
+        <v>4.993976159731342e-05</v>
       </c>
       <c r="O22">
-        <v>3.635562727329658e-06</v>
+        <v>4.627014962263944e-05</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0.9990743813355788</v>
       </c>
       <c r="Q22">
         <v>0.4973249252852727</v>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="W22">
-        <v>0.9994587175448335</v>
+        <v>0.9989154261457029</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2020,13 +2020,13 @@
         <v>8.119608707754666e-11</v>
       </c>
       <c r="F23">
-        <v>1.785444878903027e-06</v>
+        <v>8.530458865870017e-08</v>
       </c>
       <c r="G23">
         <v>190940.5759520105</v>
       </c>
       <c r="H23">
-        <v>0.9996039461178305</v>
+        <v>0.9998734492662089</v>
       </c>
       <c r="I23">
         <v>301.0901784370148</v>
@@ -2035,22 +2035,22 @@
         <v>2.141751266667246e-06</v>
       </c>
       <c r="K23">
-        <v>7.476427267170536e-05</v>
+        <v>1.071621241627776e-05</v>
       </c>
       <c r="L23">
-        <v>0.9999048490196322</v>
+        <v>0.9999863557876649</v>
       </c>
       <c r="M23">
         <v>1</v>
       </c>
       <c r="N23">
-        <v>7.879364772089819e-05</v>
+        <v>6.108034707046372e-05</v>
       </c>
       <c r="O23">
-        <v>3.635573457984819e-06</v>
+        <v>4.627036639352975e-05</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0.9990743770011582</v>
       </c>
       <c r="Q23">
         <v>0.4900757859888837</v>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="W23">
-        <v>0.9995088328223779</v>
+        <v>0.9989343135477853</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2091,13 +2091,13 @@
         <v>6.472908254021182e-11</v>
       </c>
       <c r="F24">
-        <v>1.423347024434031e-06</v>
+        <v>6.800435783407038e-08</v>
       </c>
       <c r="G24">
         <v>239515.6400062521</v>
       </c>
       <c r="H24">
-        <v>0.9996598202533142</v>
+        <v>0.9998911960265982</v>
       </c>
       <c r="I24">
         <v>273.6264824626152</v>
@@ -2106,22 +2106,22 @@
         <v>2.639758229302488e-06</v>
       </c>
       <c r="K24">
-        <v>9.214870424708948e-05</v>
+        <v>1.320798094208282e-05</v>
       </c>
       <c r="L24">
-        <v>0.9998827319207841</v>
+        <v>0.9999831832177621</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
-        <v>9.711500267333217e-05</v>
+        <v>7.528294780878468e-05</v>
       </c>
       <c r="O24">
-        <v>3.635590260795739e-06</v>
+        <v>4.627070582856217e-05</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0.999074370214019</v>
       </c>
       <c r="Q24">
         <v>0.4811052195154485</v>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="W24">
-        <v>0.9995425920663239</v>
+        <v>0.9989488675647314</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2162,13 +2162,13 @@
         <v>5.19510914822534e-11</v>
       </c>
       <c r="F25">
-        <v>1.142367983223443e-06</v>
+        <v>5.457980364289781e-08</v>
       </c>
       <c r="G25">
         <v>298427.3706151568</v>
       </c>
       <c r="H25">
-        <v>0.9997064705428056</v>
+        <v>0.9999060324015686</v>
       </c>
       <c r="I25">
         <v>248.6678652008114</v>
@@ -2177,22 +2177,22 @@
         <v>3.275594601362588e-06</v>
       </c>
       <c r="K25">
-        <v>0.0001143444860986685</v>
+        <v>1.638937634080914e-05</v>
       </c>
       <c r="L25">
-        <v>0.9998544970452272</v>
+        <v>0.9999791326156562</v>
       </c>
       <c r="M25">
         <v>1</v>
       </c>
       <c r="N25">
-        <v>0.000120507012701741</v>
+        <v>9.341628891607832e-05</v>
       </c>
       <c r="O25">
-        <v>3.635616801199432e-06</v>
+        <v>4.627124197354598e-05</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0.9990743594935858</v>
       </c>
       <c r="Q25">
         <v>0.4703022547444596</v>
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="W25">
-        <v>0.9995610102974362</v>
+        <v>0.9989596327657652</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2233,13 +2233,13 @@
         <v>4.19409704133572e-11</v>
       </c>
       <c r="F26">
-        <v>9.222524574273436e-07</v>
+        <v>4.406317296597308e-08</v>
       </c>
       <c r="G26">
         <v>369653.5268220407</v>
       </c>
       <c r="H26">
-        <v>0.999745712502691</v>
+        <v>0.9999185276881527</v>
       </c>
       <c r="I26">
         <v>225.9858279323433</v>
@@ -2248,22 +2248,22 @@
         <v>4.088506704298104e-06</v>
       </c>
       <c r="K26">
-        <v>0.0001427216291721377</v>
+        <v>2.04567668480064e-05</v>
       </c>
       <c r="L26">
-        <v>0.9998184041283097</v>
+        <v>0.9999739539746954</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26">
-        <v>0.0001504135246593254</v>
+        <v>0.000116599631518857</v>
       </c>
       <c r="O26">
-        <v>3.635659043235877e-06</v>
+        <v>4.627209530856707e-05</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0.9990743424308113</v>
       </c>
       <c r="Q26">
         <v>0.457740489247672</v>
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="W26">
-        <v>0.9995641628085604</v>
+        <v>0.9989669257388876</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2304,13 +2304,13 @@
         <v>3.40326572343741e-11</v>
       </c>
       <c r="F27">
-        <v>7.483542096867664e-07</v>
+        <v>3.575470112947884e-08</v>
       </c>
       <c r="G27">
         <v>455551.4876451428</v>
       </c>
       <c r="H27">
-        <v>0.999778944380699</v>
+        <v>0.9999291210518918</v>
       </c>
       <c r="I27">
         <v>205.3727142629607</v>
@@ -2319,22 +2319,22 @@
         <v>5.12923820423864e-06</v>
       </c>
       <c r="K27">
-        <v>0.0001790514938256862</v>
+        <v>2.566404744834835e-05</v>
       </c>
       <c r="L27">
-        <v>0.9997722039918984</v>
+        <v>0.9999673240537812</v>
       </c>
       <c r="M27">
         <v>1</v>
       </c>
       <c r="N27">
-        <v>0.0001887013652945083</v>
+        <v>0.0001462801281352778</v>
       </c>
       <c r="O27">
-        <v>3.635726736411463e-06</v>
+        <v>4.627346278424479e-05</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0.9990743150875897</v>
       </c>
       <c r="Q27">
         <v>0.4436687416136129</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="W27">
-        <v>0.9995511987281851</v>
+        <v>0.9989708583663588</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2375,13 +2375,13 @@
         <v>2.773841210272067e-11</v>
       </c>
       <c r="F28">
-        <v>6.099481837148743e-07</v>
+        <v>2.914196877748844e-08</v>
       </c>
       <c r="G28">
         <v>558922.6800086264</v>
       </c>
       <c r="H28">
-        <v>0.9998072527422541</v>
+        <v>0.9999381542705456</v>
       </c>
       <c r="I28">
         <v>186.6398090076832</v>
@@ -2390,22 +2390,22 @@
         <v>6.46352412286314e-06</v>
       </c>
       <c r="K28">
-        <v>0.0002256287587931955</v>
+        <v>3.234012209369135e-05</v>
       </c>
       <c r="L28">
-        <v>0.9997129843574645</v>
+        <v>0.9999588241254184</v>
       </c>
       <c r="M28">
         <v>1</v>
       </c>
       <c r="N28">
-        <v>0.0002377888836572968</v>
+        <v>0.0001843324679513929</v>
       </c>
       <c r="O28">
-        <v>3.635835884802442e-06</v>
+        <v>4.62756677003037e-05</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0.9990742709994151</v>
       </c>
       <c r="Q28">
         <v>0.428467029507397</v>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="W28">
-        <v>0.9995202924211967</v>
+        <v>0.9989713473096602</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2446,13 +2446,13 @@
         <v>2.269612593133847e-11</v>
       </c>
       <c r="F29">
-        <v>4.990718552280125e-07</v>
+        <v>2.384454419422726e-08</v>
       </c>
       <c r="G29">
         <v>683095.7705530341</v>
       </c>
       <c r="H29">
-        <v>0.9998314922898344</v>
+        <v>0.9999458965671491</v>
       </c>
       <c r="I29">
         <v>169.6156104837871</v>
@@ -2461,22 +2461,22 @@
         <v>8.176553442485585e-06</v>
       </c>
       <c r="K29">
-        <v>0.0002854272018431076</v>
+        <v>4.091123226417875e-05</v>
       </c>
       <c r="L29">
-        <v>0.999636973198717</v>
+        <v>0.9999479115579074</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29">
-        <v>0.0003008101274621085</v>
+        <v>0.000233186145319464</v>
       </c>
       <c r="O29">
-        <v>3.636012850738245e-06</v>
+        <v>4.627924260443404e-05</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0.9990741995177878</v>
       </c>
       <c r="Q29">
         <v>0.4125851016825388</v>
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <v>0.9994685266613664</v>
+        <v>0.9989681087708878</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2517,13 +2517,13 @@
         <v>1.863343535955882e-11</v>
       </c>
       <c r="F30">
-        <v>4.097361453800256e-07</v>
+        <v>1.957628250149011e-08</v>
       </c>
       <c r="G30">
         <v>832032.7053209274</v>
       </c>
       <c r="H30">
-        <v>0.9998523437447432</v>
+        <v>0.9999525626519784</v>
       </c>
       <c r="I30">
         <v>154.1442603951844</v>
@@ -2532,22 +2532,22 @@
         <v>1.037868300424866e-05</v>
       </c>
       <c r="K30">
-        <v>0.0003622991605884724</v>
+        <v>5.192954635101436e-05</v>
       </c>
       <c r="L30">
-        <v>0.9995392873826791</v>
+        <v>0.9999338834338423</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30">
-        <v>0.000381825053716985</v>
+        <v>0.0002959884137340971</v>
       </c>
       <c r="O30">
-        <v>3.636301181422699e-06</v>
+        <v>4.628506719745579e-05</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0.9990740830527487</v>
       </c>
       <c r="Q30">
         <v>0.3964823831537038</v>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="W30">
-        <v>0.9993916991545221</v>
+        <v>0.9989606374135535</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2588,13 +2588,13 @@
         <v>1.534316539601589e-11</v>
       </c>
       <c r="F31">
-        <v>3.373854217422522e-07</v>
+        <v>1.611952570546316e-08</v>
       </c>
       <c r="G31">
         <v>1010458.222373209</v>
       </c>
       <c r="H31">
-        <v>0.9998703550201571</v>
+        <v>0.9999583255691838</v>
       </c>
       <c r="I31">
         <v>140.0841169336214</v>
@@ -2603,22 +2603,22 @@
         <v>1.321280581364587e-05</v>
       </c>
       <c r="K31">
-        <v>0.0004612327453630452</v>
+        <v>6.611002683536978e-05</v>
       </c>
       <c r="L31">
-        <v>0.9994136091666971</v>
+        <v>0.9999158296420531</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31">
-        <v>0.0004860906039313652</v>
+        <v>0.0003768144216522212</v>
       </c>
       <c r="O31">
-        <v>3.63677297879499e-06</v>
+        <v>4.62945980168603e-05</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0.999073892480278</v>
       </c>
       <c r="Q31">
         <v>0.3805814571968537</v>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="W31">
-        <v>0.9992840402094819</v>
+        <v>0.9989481677418234</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2659,13 +2659,13 @@
         <v>1.266622346411515e-11</v>
       </c>
       <c r="F32">
-        <v>2.785213503878254e-07</v>
+        <v>1.33071311851961e-08</v>
       </c>
       <c r="G32">
         <v>1224013.430329876</v>
       </c>
       <c r="H32">
-        <v>0.9998859708514596</v>
+        <v>0.9999633259491948</v>
       </c>
       <c r="I32">
         <v>127.3064580332929</v>
@@ -2674,22 +2674,22 @@
         <v>1.686389931688434e-05</v>
       </c>
       <c r="K32">
-        <v>0.0005886851505392918</v>
+        <v>8.437820491063179e-05</v>
       </c>
       <c r="L32">
-        <v>0.9992517679390627</v>
+        <v>0.9998925721035837</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32">
-        <v>0.0006204119790450553</v>
+        <v>0.000480939518639578</v>
       </c>
       <c r="O32">
-        <v>3.637547859267136e-06</v>
+        <v>4.631025144410229e-05</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0.9990735794839419</v>
       </c>
       <c r="Q32">
         <v>0.3652386406504299</v>
@@ -2710,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="W32">
-        <v>0.9991378241107871</v>
+        <v>0.9989296149718869</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2730,13 +2730,13 @@
         <v>1.047941257128225e-11</v>
       </c>
       <c r="F33">
-        <v>2.304349160500609e-07</v>
+        <v>1.100966821128068e-08</v>
       </c>
       <c r="G33">
         <v>1479436.707561495</v>
       </c>
       <c r="H33">
-        <v>0.9998995547880168</v>
+        <v>0.9999676788833856</v>
       </c>
       <c r="I33">
         <v>115.6943029070325</v>
@@ -2745,22 +2745,22 @@
         <v>2.157141146188025e-05</v>
       </c>
       <c r="K33">
-        <v>0.0007530150272581276</v>
+        <v>0.0001079321539069983</v>
       </c>
       <c r="L33">
-        <v>0.999043199115654</v>
+        <v>0.999862585955672</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33">
-        <v>0.0007935983146235305</v>
+        <v>0.0006151924919562255</v>
       </c>
       <c r="O33">
-        <v>3.638824601866674e-06</v>
+        <v>4.633604303145932e-05</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0.9990730637713845</v>
       </c>
       <c r="Q33">
         <v>0.350729864341758</v>
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="W33">
-        <v>0.9989428500097385</v>
+        <v>0.9989034903813705</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2801,13 +2801,13 @@
         <v>8.686587014053822e-12</v>
       </c>
       <c r="F34">
-        <v>1.910119422944063e-07</v>
+        <v>9.126126131843857e-09</v>
       </c>
       <c r="G34">
         <v>1784777.796682794</v>
       </c>
       <c r="H34">
-        <v>0.9999114059833052</v>
+        <v>0.9999714791801689</v>
       </c>
       <c r="I34">
         <v>105.1413410751223</v>
@@ -2816,22 +2816,22 @@
         <v>2.764531658338609e-05</v>
       </c>
       <c r="K34">
-        <v>0.0009650429624127858</v>
+        <v>0.0001383228246124993</v>
       </c>
       <c r="L34">
-        <v>0.9987742449806907</v>
+        <v>0.9998238974176443</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
       <c r="N34">
-        <v>0.001017053366516092</v>
+        <v>0.000788413462415576</v>
       </c>
       <c r="O34">
-        <v>3.640934017910782e-06</v>
+        <v>4.637865552687822e-05</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0.999072211718983</v>
       </c>
       <c r="Q34">
         <v>0.3372483466514601</v>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="W34">
-        <v>0.9986857595585565</v>
+        <v>0.9988677831819209</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2872,13 +2872,13 @@
         <v>7.212155524051183e-12</v>
       </c>
       <c r="F35">
-        <v>1.585902302652986e-07</v>
+        <v>7.577088779342043e-09</v>
       </c>
       <c r="G35">
         <v>2149652.427756815</v>
       </c>
       <c r="H35">
-        <v>0.9999217722131363</v>
+        <v>0.9999748054464637</v>
       </c>
       <c r="I35">
         <v>95.55095908186888</v>
@@ -2887,22 +2887,22 @@
         <v>3.548691496862573e-05</v>
       </c>
       <c r="K35">
-        <v>0.001238777550074943</v>
+        <v>0.0001775581155107418</v>
       </c>
       <c r="L35">
-        <v>0.9984272524668177</v>
+        <v>0.9997739515386473</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
       <c r="N35">
-        <v>0.00130554071346035</v>
+        <v>0.001012047064697946</v>
       </c>
       <c r="O35">
-        <v>3.644427328815013e-06</v>
+        <v>4.644922420171082e-05</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0.9990708006741668</v>
       </c>
       <c r="Q35">
         <v>0.3249104994990378</v>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="W35">
-        <v>0.9983491477125128</v>
+        <v>0.9988197968040159</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2943,13 +2943,13 @@
         <v>5.996268755206733e-12</v>
       </c>
       <c r="F36">
-        <v>1.318537349131772e-07</v>
+        <v>6.299678445851799e-09</v>
       </c>
       <c r="G36">
         <v>2585545.822670824</v>
       </c>
       <c r="H36">
-        <v>0.9999308600338599</v>
+        <v>0.9999777232769952</v>
       </c>
       <c r="I36">
         <v>86.83535598943621</v>
@@ -2958,22 +2958,22 @@
         <v>4.561577120072551e-05</v>
       </c>
       <c r="K36">
-        <v>0.001592355755431907</v>
+        <v>0.0002282376582785733</v>
       </c>
       <c r="L36">
-        <v>0.9979794100650887</v>
+        <v>0.9997094410083244</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
       <c r="N36">
-        <v>0.001678174801362439</v>
+        <v>0.001300910698730574</v>
       </c>
       <c r="O36">
-        <v>3.65022397974732e-06</v>
+        <v>4.656632284708607e-05</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0.9990684592510548</v>
       </c>
       <c r="Q36">
         <v>0.3137668443944204</v>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="W36">
-        <v>0.9979104098024683</v>
+        <v>0.9987559214222629</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3014,13 +3014,13 @@
         <v>4.991228394730075e-12</v>
       </c>
       <c r="F37">
-        <v>1.097536038688067e-07</v>
+        <v>5.243783295954095e-09</v>
       </c>
       <c r="G37">
         <v>3106174.754095738</v>
       </c>
       <c r="H37">
-        <v>0.9999388427359837</v>
+        <v>0.9999802877545936</v>
       </c>
       <c r="I37">
         <v>78.91473955119022</v>
@@ -3029,22 +3029,22 @@
         <v>5.870460149883951e-05</v>
       </c>
       <c r="K37">
-        <v>0.002049260762372618</v>
+        <v>0.0002937273759400752</v>
       </c>
       <c r="L37">
-        <v>0.9974012498781547</v>
+        <v>0.9996260846133709</v>
       </c>
       <c r="M37">
         <v>1</v>
       </c>
       <c r="N37">
-        <v>0.002159704426038713</v>
+        <v>0.001674189477549391</v>
       </c>
       <c r="O37">
-        <v>3.659858974222551e-06</v>
+        <v>4.676096020138309e-05</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>0.9990645674299609</v>
       </c>
       <c r="Q37">
         <v>0.3038152119064486</v>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="W37">
-        <v>0.9973402515465857</v>
+        <v>0.9986713153738498</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3085,13 +3085,13 @@
         <v>4.158788085411252e-12</v>
       </c>
       <c r="F38">
-        <v>9.144882662201312e-08</v>
+        <v>4.369221716385071e-09</v>
       </c>
       <c r="G38">
         <v>3727919.603795642</v>
       </c>
       <c r="H38">
-        <v>0.9999458665926665</v>
+        <v>0.9999825454166669</v>
       </c>
       <c r="I38">
         <v>71.71659570543805</v>
@@ -3100,22 +3100,22 @@
         <v>7.562445560233146e-05</v>
       </c>
       <c r="K38">
-        <v>0.00263989918311108</v>
+        <v>0.0003783855495792548</v>
       </c>
       <c r="L38">
-        <v>0.9966547205461663</v>
+        <v>0.999518340590274</v>
       </c>
       <c r="M38">
         <v>1</v>
       </c>
       <c r="N38">
-        <v>0.002782174945593526</v>
+        <v>0.00215672476402599</v>
       </c>
       <c r="O38">
-        <v>3.675896895715833e-06</v>
+        <v>4.708494363654756e-05</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0.9990580893362367</v>
       </c>
       <c r="Q38">
         <v>0.2950141541138939</v>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="W38">
-        <v>0.9966007682302082</v>
+        <v>0.9985594538632157</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3156,13 +3156,13 @@
         <v>3.468109238631446e-12</v>
       </c>
       <c r="F39">
-        <v>7.626128428672901e-08</v>
+        <v>3.643594693699275e-09</v>
       </c>
       <c r="G39">
         <v>4470340.051270776</v>
       </c>
       <c r="H39">
-        <v>0.9999520557884823</v>
+        <v>0.999984535807882</v>
       </c>
       <c r="I39">
         <v>65.17502470170267</v>
@@ -3171,22 +3171,22 @@
         <v>9.750323113378348e-05</v>
       </c>
       <c r="K39">
-        <v>0.003403643678101802</v>
+        <v>0.0004878555938612582</v>
       </c>
       <c r="L39">
-        <v>0.9956907114228503</v>
+        <v>0.9993790358438682</v>
       </c>
       <c r="M39">
         <v>1</v>
       </c>
       <c r="N39">
-        <v>0.00358708098609392</v>
+        <v>0.002780682934956528</v>
       </c>
       <c r="O39">
-        <v>3.70262517753813e-06</v>
+        <v>4.7624883962634e-05</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0.9990472932478599</v>
       </c>
       <c r="Q39">
         <v>0.2872952087990484</v>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="W39">
-        <v>0.9956429738167757</v>
+        <v>0.9984114808227552</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3227,13 +3227,13 @@
         <v>2.894200772787367e-12</v>
       </c>
       <c r="F40">
-        <v>6.364144054571503e-08</v>
+        <v>3.040646603850829e-09</v>
       </c>
       <c r="G40">
         <v>5356790.647493682</v>
       </c>
       <c r="H40">
-        <v>0.9999575163257515</v>
+        <v>0.9999862927118504</v>
       </c>
       <c r="I40">
         <v>59.23013778169977</v>
@@ -3242,22 +3242,22 @@
         <v>0.0001258014549196122</v>
       </c>
       <c r="K40">
-        <v>0.004391478331068226</v>
+        <v>0.0006294452274531122</v>
       </c>
       <c r="L40">
-        <v>0.994445876915023</v>
+        <v>0.9991988865080587</v>
       </c>
       <c r="M40">
         <v>1</v>
       </c>
       <c r="N40">
-        <v>0.004628154387477905</v>
+        <v>0.003587716579440238</v>
       </c>
       <c r="O40">
-        <v>3.747215284755358e-06</v>
+        <v>4.852565256389196e-05</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0.9990292826701085</v>
       </c>
       <c r="Q40">
         <v>0.2805732851395691</v>
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="W40">
-        <v>0.9944036292003303</v>
+        <v>0.9982152638211034</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3298,13 +3298,13 @@
         <v>2.416718851929949e-12</v>
       </c>
       <c r="F41">
-        <v>5.314194874693591e-08</v>
+        <v>2.53900421790916e-09</v>
       </c>
       <c r="G41">
         <v>6415155.664158217</v>
       </c>
       <c r="H41">
-        <v>0.9999623391373978</v>
+        <v>0.9999878451334216</v>
       </c>
       <c r="I41">
         <v>53.82750889156914</v>
@@ -3313,22 +3313,22 @@
         <v>0.0001624104268548831</v>
       </c>
       <c r="K41">
-        <v>0.005669424655927173</v>
+        <v>0.0008126175340162279</v>
       </c>
       <c r="L41">
-        <v>0.9928385712687261</v>
+        <v>0.9989658782937157</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
       <c r="N41">
-        <v>0.005974974853040465</v>
+        <v>0.004631763451969355</v>
       </c>
       <c r="O41">
-        <v>3.821668064506826e-06</v>
+        <v>5.002967958831201e-05</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>0.9989992108583688</v>
       </c>
       <c r="Q41">
         <v>0.2747549210318906</v>
@@ -3349,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="W41">
-        <v>0.9928011801117075</v>
+        <v>0.9979539939447714</v>
       </c>
     </row>
   </sheetData>
